--- a/Model Description.xlsx
+++ b/Model Description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curryc2/Documents/2018/Coastwide_Salmon_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curryc2/Documents/2018/FATE Working Group/Salmon-PDO-NPGO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E20BE9-9E40-C54A-8CF1-C0B3285FB689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C36775-A1C4-E341-901F-866CE4DCC1BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{45C25943-9EA7-9B4B-A7F8-C94432BD3386}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -39,15 +39,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DLM-Ricker.R</t>
-  </si>
-  <si>
-    <t>DLM-Ricker2.R</t>
-  </si>
-  <si>
-    <t>DLM-Ricker2-plus.R</t>
-  </si>
-  <si>
     <t>DLM Ricker 2 + with autocorrelation coefficients</t>
   </si>
   <si>
@@ -61,6 +52,27 @@
   </si>
   <si>
     <t>DLM Ricker</t>
+  </si>
+  <si>
+    <t>DLM-Ricker.stan</t>
+  </si>
+  <si>
+    <t>DLM-Ricker2.stan</t>
+  </si>
+  <si>
+    <t>DLM-Ricker2-plus.stan</t>
+  </si>
+  <si>
+    <t>DLM Ricker with regional time-varying PDO and NPFO Coefficients</t>
+  </si>
+  <si>
+    <t>DLM-Region.stan</t>
+  </si>
+  <si>
+    <t>DLM-Region-ARMA.stan</t>
+  </si>
+  <si>
+    <t>DLM Ricker with regional time-varying PDO and NPFO Coefficients, as lag-1 autoregressive moving average processes.</t>
   </si>
 </sst>
 </file>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EE747A-F7A8-6B4B-868D-EA0286B5C00B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,26 +446,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -466,10 +478,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
